--- a/FA_template.xlsx
+++ b/FA_template.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="noname" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -307,103 +307,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>

--- a/FA_template.xlsx
+++ b/FA_template.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Issuer / Producer</t>
   </si>
   <si>
-    <t xml:space="preserve">Usage purpose</t>
+    <t xml:space="preserve">Use purpose</t>
   </si>
   <si>
     <t xml:space="preserve">Purchase value / Production cost</t>
@@ -658,7 +658,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
